--- a/Automated Record Fire Template.xlsx
+++ b/Automated Record Fire Template.xlsx
@@ -17,6 +17,17 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A2">
+      <text>
+        <t xml:space="preserve">+mattgwagner@gmail.com is it worth adding a column to reference the firing order DTG from the tower print out.  Thats it I 'll stay out of this moving forward you got it.
+_Assigned to you_
+	-Erich McCartney
+I can do that for sure. Previously I was limiting the spreadsheet to items that result in fields on the scorecard, but that would be good to cross-reference.
+	-Matt Wagner
+On the print-out, does firing order automatically increment throughout the day?
+	-Matt Wagner</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A3">
       <text>
         <t xml:space="preserve">What do we want the scorecard output to read? Rank Last, First Middle?
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Soldiers Scored</t>
   </si>
@@ -37,6 +48,9 @@
   </si>
   <si>
     <t>Average Score</t>
+  </si>
+  <si>
+    <t>FIRING ORDER</t>
   </si>
   <si>
     <t>LAST NAME</t>
@@ -236,11 +250,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="9.57"/>
-    <col customWidth="1" min="4" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="45" width="3.0"/>
-    <col customWidth="1" min="46" max="46" width="10.29"/>
+    <col customWidth="1" min="1" max="1" width="17.43"/>
+    <col customWidth="1" min="2" max="3" width="14.43"/>
+    <col customWidth="1" min="4" max="4" width="9.57"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
+    <col customWidth="1" min="7" max="46" width="3.0"/>
+    <col customWidth="1" min="47" max="47" width="10.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -291,7 +306,8 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
-      <c r="AT1" s="4"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
@@ -309,171 +325,174 @@
       <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
         <v>1.0</v>
       </c>
-      <c r="G2" s="6">
-        <f t="shared" ref="G2:AR2" si="1">F2+1</f>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:AS2" si="1">G2+1</f>
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="R2" s="6">
+      <c r="S2" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="S2" s="6">
+      <c r="T2" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="V2" s="6">
+      <c r="W2" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AB2" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AC2" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AD2" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AE2" s="6">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AF2" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AG2" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AH2" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AI2" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AJ2" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AJ2" s="6">
+      <c r="AK2" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AK2" s="6">
+      <c r="AL2" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="AL2" s="6">
+      <c r="AM2" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AM2" s="6">
+      <c r="AN2" s="6">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AO2" s="6">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AO2" s="6">
+      <c r="AP2" s="6">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AP2" s="6">
+      <c r="AQ2" s="6">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AQ2" s="6">
+      <c r="AR2" s="6">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AR2" s="6">
+      <c r="AS2" s="6">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="AS2" s="6">
+      <c r="AT2" s="6">
         <v>40.0</v>
       </c>
-      <c r="AT2" s="6" t="s">
-        <v>8</v>
+      <c r="AU2" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
+      <c r="A3" s="7">
+        <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
@@ -487,14 +506,14 @@
       <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8">
         <v>1.0</v>
       </c>
-      <c r="G3" s="8">
-        <v>0.0</v>
-      </c>
       <c r="H3" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" s="8">
         <v>1.0</v>
@@ -512,31 +531,31 @@
         <v>1.0</v>
       </c>
       <c r="N3" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="O3" s="8">
         <v>0.0</v>
       </c>
       <c r="P3" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q3" s="8">
         <v>1.0</v>
       </c>
       <c r="R3" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S3" s="8">
         <v>0.0</v>
       </c>
       <c r="T3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="U3" s="8">
         <v>1.0</v>
       </c>
-      <c r="U3" s="8">
-        <v>0.0</v>
-      </c>
       <c r="V3" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W3" s="8">
         <v>1.0</v>
@@ -548,10 +567,10 @@
         <v>1.0</v>
       </c>
       <c r="Z3" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AA3" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AB3" s="8">
         <v>1.0</v>
@@ -578,10 +597,10 @@
         <v>1.0</v>
       </c>
       <c r="AJ3" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AK3" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AL3" s="8">
         <v>1.0</v>
@@ -590,10 +609,10 @@
         <v>1.0</v>
       </c>
       <c r="AN3" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AO3" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP3" s="8">
         <v>1.0</v>
@@ -602,13 +621,16 @@
         <v>1.0</v>
       </c>
       <c r="AR3" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AS3" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT3" s="9">
-        <f t="shared" ref="AT3:AT284" si="2">sum(F3:AS3)</f>
+      <c r="AT3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU3" s="9">
+        <f t="shared" ref="AU3:AU284" si="2">sum(G3:AT3)</f>
         <v>29</v>
       </c>
     </row>
@@ -618,9 +640,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F4" s="9"/>
       <c r="G4" s="8">
         <v>0.0</v>
       </c>
@@ -738,7 +758,10 @@
       <c r="AS4" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT4" s="9">
+      <c r="AT4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU4" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -749,9 +772,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="8">
         <v>0.0</v>
       </c>
@@ -869,7 +890,10 @@
       <c r="AS5" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT5" s="9">
+      <c r="AT5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU5" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -880,9 +904,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F6" s="9"/>
       <c r="G6" s="8">
         <v>0.0</v>
       </c>
@@ -1000,7 +1022,10 @@
       <c r="AS6" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT6" s="9">
+      <c r="AT6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU6" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1011,9 +1036,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="8">
         <v>0.0</v>
       </c>
@@ -1131,7 +1154,10 @@
       <c r="AS7" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT7" s="9">
+      <c r="AT7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1142,9 +1168,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="8">
         <v>0.0</v>
       </c>
@@ -1262,7 +1286,10 @@
       <c r="AS8" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT8" s="9">
+      <c r="AT8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU8" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1273,9 +1300,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="8">
         <v>0.0</v>
       </c>
@@ -1393,7 +1418,10 @@
       <c r="AS9" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT9" s="9">
+      <c r="AT9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1404,9 +1432,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="8">
         <v>0.0</v>
       </c>
@@ -1524,7 +1550,10 @@
       <c r="AS10" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT10" s="9">
+      <c r="AT10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU10" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1535,9 +1564,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="8">
         <v>0.0</v>
       </c>
@@ -1655,7 +1682,10 @@
       <c r="AS11" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT11" s="9">
+      <c r="AT11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1666,9 +1696,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="8">
         <v>0.0</v>
       </c>
@@ -1786,7 +1814,10 @@
       <c r="AS12" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT12" s="9">
+      <c r="AT12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU12" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1797,9 +1828,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="8">
         <v>0.0</v>
       </c>
@@ -1917,7 +1946,10 @@
       <c r="AS13" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT13" s="9">
+      <c r="AT13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU13" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1928,9 +1960,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="8">
         <v>0.0</v>
       </c>
@@ -2048,7 +2078,10 @@
       <c r="AS14" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT14" s="9">
+      <c r="AT14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU14" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2059,9 +2092,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="8">
         <v>0.0</v>
       </c>
@@ -2179,7 +2210,10 @@
       <c r="AS15" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT15" s="9">
+      <c r="AT15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU15" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2190,9 +2224,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="8">
         <v>0.0</v>
       </c>
@@ -2310,7 +2342,10 @@
       <c r="AS16" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT16" s="9">
+      <c r="AT16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU16" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2321,9 +2356,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="8">
         <v>0.0</v>
       </c>
@@ -2441,7 +2474,10 @@
       <c r="AS17" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT17" s="9">
+      <c r="AT17" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU17" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2452,9 +2488,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="8">
         <v>0.0</v>
       </c>
@@ -2572,7 +2606,10 @@
       <c r="AS18" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT18" s="9">
+      <c r="AT18" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU18" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2583,9 +2620,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F19" s="9"/>
       <c r="G19" s="8">
         <v>0.0</v>
       </c>
@@ -2703,7 +2738,10 @@
       <c r="AS19" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT19" s="9">
+      <c r="AT19" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU19" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2714,9 +2752,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="8">
         <v>0.0</v>
       </c>
@@ -2834,7 +2870,10 @@
       <c r="AS20" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT20" s="9">
+      <c r="AT20" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2845,9 +2884,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="8">
         <v>0.0</v>
       </c>
@@ -2965,7 +3002,10 @@
       <c r="AS21" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT21" s="9">
+      <c r="AT21" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU21" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2976,9 +3016,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="8">
         <v>0.0</v>
       </c>
@@ -3096,7 +3134,10 @@
       <c r="AS22" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT22" s="9">
+      <c r="AT22" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU22" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3107,9 +3148,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="8">
         <v>0.0</v>
       </c>
@@ -3227,7 +3266,10 @@
       <c r="AS23" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT23" s="9">
+      <c r="AT23" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3238,9 +3280,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F24" s="9"/>
       <c r="G24" s="8">
         <v>0.0</v>
       </c>
@@ -3358,7 +3398,10 @@
       <c r="AS24" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT24" s="9">
+      <c r="AT24" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU24" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3369,9 +3412,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F25" s="9"/>
       <c r="G25" s="8">
         <v>0.0</v>
       </c>
@@ -3489,7 +3530,10 @@
       <c r="AS25" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT25" s="9">
+      <c r="AT25" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU25" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3500,9 +3544,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="8">
         <v>0.0</v>
       </c>
@@ -3620,7 +3662,10 @@
       <c r="AS26" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT26" s="9">
+      <c r="AT26" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU26" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3631,9 +3676,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="8">
         <v>0.0</v>
       </c>
@@ -3751,7 +3794,10 @@
       <c r="AS27" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT27" s="9">
+      <c r="AT27" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU27" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3762,9 +3808,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="8">
         <v>0.0</v>
       </c>
@@ -3882,7 +3926,10 @@
       <c r="AS28" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT28" s="9">
+      <c r="AT28" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU28" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3893,9 +3940,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="8">
         <v>0.0</v>
       </c>
@@ -4013,7 +4058,10 @@
       <c r="AS29" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT29" s="9">
+      <c r="AT29" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU29" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4024,9 +4072,7 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="8">
         <v>0.0</v>
       </c>
@@ -4144,7 +4190,10 @@
       <c r="AS30" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT30" s="9">
+      <c r="AT30" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU30" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4155,9 +4204,7 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="8">
         <v>0.0</v>
       </c>
@@ -4275,7 +4322,10 @@
       <c r="AS31" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT31" s="9">
+      <c r="AT31" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU31" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4286,9 +4336,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="8">
         <v>0.0</v>
       </c>
@@ -4406,7 +4454,10 @@
       <c r="AS32" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT32" s="9">
+      <c r="AT32" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU32" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4417,9 +4468,7 @@
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="8">
         <v>0.0</v>
       </c>
@@ -4537,7 +4586,10 @@
       <c r="AS33" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT33" s="9">
+      <c r="AT33" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU33" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4548,9 +4600,7 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="8">
         <v>0.0</v>
       </c>
@@ -4668,7 +4718,10 @@
       <c r="AS34" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT34" s="9">
+      <c r="AT34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU34" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4679,9 +4732,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="8">
         <v>0.0</v>
       </c>
@@ -4799,7 +4850,10 @@
       <c r="AS35" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT35" s="9">
+      <c r="AT35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU35" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4810,9 +4864,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="8">
         <v>0.0</v>
       </c>
@@ -4930,7 +4982,10 @@
       <c r="AS36" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT36" s="9">
+      <c r="AT36" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU36" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4941,9 +4996,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="8">
         <v>0.0</v>
       </c>
@@ -5061,7 +5114,10 @@
       <c r="AS37" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT37" s="9">
+      <c r="AT37" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU37" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5072,9 +5128,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="8">
         <v>0.0</v>
       </c>
@@ -5192,7 +5246,10 @@
       <c r="AS38" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT38" s="9">
+      <c r="AT38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU38" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5203,9 +5260,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="8">
         <v>0.0</v>
       </c>
@@ -5323,7 +5378,10 @@
       <c r="AS39" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT39" s="9">
+      <c r="AT39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU39" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5334,9 +5392,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F40" s="9"/>
       <c r="G40" s="8">
         <v>0.0</v>
       </c>
@@ -5454,7 +5510,10 @@
       <c r="AS40" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT40" s="9">
+      <c r="AT40" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU40" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5465,9 +5524,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F41" s="9"/>
       <c r="G41" s="8">
         <v>0.0</v>
       </c>
@@ -5585,7 +5642,10 @@
       <c r="AS41" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT41" s="9">
+      <c r="AT41" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU41" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5596,9 +5656,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F42" s="9"/>
       <c r="G42" s="8">
         <v>0.0</v>
       </c>
@@ -5716,7 +5774,10 @@
       <c r="AS42" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT42" s="9">
+      <c r="AT42" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU42" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5727,9 +5788,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="8">
         <v>0.0</v>
       </c>
@@ -5847,7 +5906,10 @@
       <c r="AS43" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT43" s="9">
+      <c r="AT43" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU43" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5858,9 +5920,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="8">
         <v>0.0</v>
       </c>
@@ -5978,7 +6038,10 @@
       <c r="AS44" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT44" s="9">
+      <c r="AT44" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU44" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5989,9 +6052,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F45" s="9"/>
       <c r="G45" s="8">
         <v>0.0</v>
       </c>
@@ -6109,7 +6170,10 @@
       <c r="AS45" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT45" s="9">
+      <c r="AT45" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU45" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6120,9 +6184,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F46" s="9"/>
       <c r="G46" s="8">
         <v>0.0</v>
       </c>
@@ -6240,7 +6302,10 @@
       <c r="AS46" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT46" s="9">
+      <c r="AT46" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU46" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6251,9 +6316,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="8">
         <v>0.0</v>
       </c>
@@ -6371,7 +6434,10 @@
       <c r="AS47" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT47" s="9">
+      <c r="AT47" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU47" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6382,9 +6448,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="8">
         <v>0.0</v>
       </c>
@@ -6502,7 +6566,10 @@
       <c r="AS48" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT48" s="9">
+      <c r="AT48" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU48" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6513,9 +6580,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F49" s="9"/>
       <c r="G49" s="8">
         <v>0.0</v>
       </c>
@@ -6633,7 +6698,10 @@
       <c r="AS49" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT49" s="9">
+      <c r="AT49" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU49" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6644,9 +6712,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F50" s="9"/>
       <c r="G50" s="8">
         <v>0.0</v>
       </c>
@@ -6764,7 +6830,10 @@
       <c r="AS50" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT50" s="9">
+      <c r="AT50" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU50" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6775,9 +6844,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F51" s="9"/>
       <c r="G51" s="8">
         <v>0.0</v>
       </c>
@@ -6895,7 +6962,10 @@
       <c r="AS51" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT51" s="9">
+      <c r="AT51" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU51" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6906,9 +6976,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="8">
         <v>0.0</v>
       </c>
@@ -7026,7 +7094,10 @@
       <c r="AS52" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT52" s="9">
+      <c r="AT52" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU52" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7037,9 +7108,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F53" s="9"/>
       <c r="G53" s="8">
         <v>0.0</v>
       </c>
@@ -7157,7 +7226,10 @@
       <c r="AS53" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT53" s="9">
+      <c r="AT53" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU53" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7168,9 +7240,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="8">
         <v>0.0</v>
       </c>
@@ -7288,7 +7358,10 @@
       <c r="AS54" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT54" s="9">
+      <c r="AT54" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU54" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7299,9 +7372,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F55" s="9"/>
       <c r="G55" s="8">
         <v>0.0</v>
       </c>
@@ -7419,7 +7490,10 @@
       <c r="AS55" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT55" s="9">
+      <c r="AT55" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU55" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7430,9 +7504,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F56" s="9"/>
       <c r="G56" s="8">
         <v>0.0</v>
       </c>
@@ -7550,7 +7622,10 @@
       <c r="AS56" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT56" s="9">
+      <c r="AT56" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU56" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7561,9 +7636,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F57" s="9"/>
       <c r="G57" s="8">
         <v>0.0</v>
       </c>
@@ -7681,7 +7754,10 @@
       <c r="AS57" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT57" s="9">
+      <c r="AT57" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU57" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7692,9 +7768,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F58" s="9"/>
       <c r="G58" s="8">
         <v>0.0</v>
       </c>
@@ -7812,7 +7886,10 @@
       <c r="AS58" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT58" s="9">
+      <c r="AT58" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU58" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7823,9 +7900,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F59" s="9"/>
       <c r="G59" s="8">
         <v>0.0</v>
       </c>
@@ -7943,7 +8018,10 @@
       <c r="AS59" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT59" s="9">
+      <c r="AT59" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU59" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7954,9 +8032,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F60" s="9"/>
       <c r="G60" s="8">
         <v>0.0</v>
       </c>
@@ -8074,7 +8150,10 @@
       <c r="AS60" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT60" s="9">
+      <c r="AT60" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU60" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8085,9 +8164,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F61" s="9"/>
       <c r="G61" s="8">
         <v>0.0</v>
       </c>
@@ -8205,7 +8282,10 @@
       <c r="AS61" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT61" s="9">
+      <c r="AT61" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU61" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8216,9 +8296,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F62" s="9"/>
       <c r="G62" s="8">
         <v>0.0</v>
       </c>
@@ -8336,7 +8414,10 @@
       <c r="AS62" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT62" s="9">
+      <c r="AT62" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU62" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8347,9 +8428,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F63" s="9"/>
       <c r="G63" s="8">
         <v>0.0</v>
       </c>
@@ -8467,7 +8546,10 @@
       <c r="AS63" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT63" s="9">
+      <c r="AT63" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU63" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8478,9 +8560,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F64" s="9"/>
       <c r="G64" s="8">
         <v>0.0</v>
       </c>
@@ -8598,7 +8678,10 @@
       <c r="AS64" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT64" s="9">
+      <c r="AT64" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU64" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8609,9 +8692,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F65" s="9"/>
       <c r="G65" s="8">
         <v>0.0</v>
       </c>
@@ -8729,7 +8810,10 @@
       <c r="AS65" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT65" s="9">
+      <c r="AT65" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU65" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8740,9 +8824,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F66" s="9"/>
       <c r="G66" s="8">
         <v>0.0</v>
       </c>
@@ -8860,7 +8942,10 @@
       <c r="AS66" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT66" s="9">
+      <c r="AT66" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU66" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8871,9 +8956,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="8">
         <v>0.0</v>
       </c>
@@ -8991,7 +9074,10 @@
       <c r="AS67" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT67" s="9">
+      <c r="AT67" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU67" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9002,9 +9088,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="8">
         <v>0.0</v>
       </c>
@@ -9122,7 +9206,10 @@
       <c r="AS68" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT68" s="9">
+      <c r="AT68" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU68" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9133,9 +9220,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F69" s="9"/>
       <c r="G69" s="8">
         <v>0.0</v>
       </c>
@@ -9253,7 +9338,10 @@
       <c r="AS69" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT69" s="9">
+      <c r="AT69" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU69" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9264,9 +9352,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F70" s="9"/>
       <c r="G70" s="8">
         <v>0.0</v>
       </c>
@@ -9384,7 +9470,10 @@
       <c r="AS70" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT70" s="9">
+      <c r="AT70" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU70" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9395,9 +9484,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="8">
         <v>0.0</v>
       </c>
@@ -9515,7 +9602,10 @@
       <c r="AS71" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT71" s="9">
+      <c r="AT71" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU71" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9526,9 +9616,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F72" s="9"/>
       <c r="G72" s="8">
         <v>0.0</v>
       </c>
@@ -9646,7 +9734,10 @@
       <c r="AS72" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT72" s="9">
+      <c r="AT72" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU72" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9657,9 +9748,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F73" s="9"/>
       <c r="G73" s="8">
         <v>0.0</v>
       </c>
@@ -9777,7 +9866,10 @@
       <c r="AS73" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT73" s="9">
+      <c r="AT73" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU73" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9788,9 +9880,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F74" s="9"/>
       <c r="G74" s="8">
         <v>0.0</v>
       </c>
@@ -9908,7 +9998,10 @@
       <c r="AS74" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT74" s="9">
+      <c r="AT74" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU74" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9919,9 +10012,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F75" s="9"/>
       <c r="G75" s="8">
         <v>0.0</v>
       </c>
@@ -10039,7 +10130,10 @@
       <c r="AS75" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT75" s="9">
+      <c r="AT75" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU75" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10050,9 +10144,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F76" s="9"/>
       <c r="G76" s="8">
         <v>0.0</v>
       </c>
@@ -10170,7 +10262,10 @@
       <c r="AS76" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT76" s="9">
+      <c r="AT76" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU76" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10181,9 +10276,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F77" s="9"/>
       <c r="G77" s="8">
         <v>0.0</v>
       </c>
@@ -10301,7 +10394,10 @@
       <c r="AS77" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT77" s="9">
+      <c r="AT77" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU77" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10312,9 +10408,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F78" s="9"/>
       <c r="G78" s="8">
         <v>0.0</v>
       </c>
@@ -10432,7 +10526,10 @@
       <c r="AS78" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT78" s="9">
+      <c r="AT78" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU78" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10443,9 +10540,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F79" s="9"/>
       <c r="G79" s="8">
         <v>0.0</v>
       </c>
@@ -10563,7 +10658,10 @@
       <c r="AS79" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT79" s="9">
+      <c r="AT79" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU79" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10574,9 +10672,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F80" s="9"/>
       <c r="G80" s="8">
         <v>0.0</v>
       </c>
@@ -10694,7 +10790,10 @@
       <c r="AS80" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT80" s="9">
+      <c r="AT80" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU80" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10705,9 +10804,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F81" s="9"/>
       <c r="G81" s="8">
         <v>0.0</v>
       </c>
@@ -10825,7 +10922,10 @@
       <c r="AS81" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT81" s="9">
+      <c r="AT81" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU81" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10836,9 +10936,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F82" s="9"/>
       <c r="G82" s="8">
         <v>0.0</v>
       </c>
@@ -10956,7 +11054,10 @@
       <c r="AS82" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT82" s="9">
+      <c r="AT82" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU82" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10967,9 +11068,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F83" s="9"/>
       <c r="G83" s="8">
         <v>0.0</v>
       </c>
@@ -11087,7 +11186,10 @@
       <c r="AS83" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT83" s="9">
+      <c r="AT83" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU83" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11098,9 +11200,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F84" s="9"/>
       <c r="G84" s="8">
         <v>0.0</v>
       </c>
@@ -11218,7 +11318,10 @@
       <c r="AS84" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT84" s="9">
+      <c r="AT84" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU84" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11229,9 +11332,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F85" s="9"/>
       <c r="G85" s="8">
         <v>0.0</v>
       </c>
@@ -11349,7 +11450,10 @@
       <c r="AS85" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT85" s="9">
+      <c r="AT85" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU85" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11360,9 +11464,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F86" s="9"/>
       <c r="G86" s="8">
         <v>0.0</v>
       </c>
@@ -11480,7 +11582,10 @@
       <c r="AS86" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT86" s="9">
+      <c r="AT86" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU86" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11491,9 +11596,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F87" s="9"/>
       <c r="G87" s="8">
         <v>0.0</v>
       </c>
@@ -11611,7 +11714,10 @@
       <c r="AS87" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT87" s="9">
+      <c r="AT87" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU87" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11622,9 +11728,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F88" s="9"/>
       <c r="G88" s="8">
         <v>0.0</v>
       </c>
@@ -11742,7 +11846,10 @@
       <c r="AS88" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT88" s="9">
+      <c r="AT88" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU88" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11753,9 +11860,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F89" s="9"/>
       <c r="G89" s="8">
         <v>0.0</v>
       </c>
@@ -11873,7 +11978,10 @@
       <c r="AS89" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT89" s="9">
+      <c r="AT89" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU89" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11884,9 +11992,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F90" s="9"/>
       <c r="G90" s="8">
         <v>0.0</v>
       </c>
@@ -12004,7 +12110,10 @@
       <c r="AS90" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT90" s="9">
+      <c r="AT90" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU90" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12015,9 +12124,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="8">
         <v>0.0</v>
       </c>
@@ -12135,7 +12242,10 @@
       <c r="AS91" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT91" s="9">
+      <c r="AT91" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU91" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12146,9 +12256,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F92" s="9"/>
       <c r="G92" s="8">
         <v>0.0</v>
       </c>
@@ -12266,7 +12374,10 @@
       <c r="AS92" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT92" s="9">
+      <c r="AT92" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU92" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12277,9 +12388,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F93" s="9"/>
       <c r="G93" s="8">
         <v>0.0</v>
       </c>
@@ -12397,7 +12506,10 @@
       <c r="AS93" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT93" s="9">
+      <c r="AT93" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU93" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12408,9 +12520,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F94" s="9"/>
       <c r="G94" s="8">
         <v>0.0</v>
       </c>
@@ -12528,7 +12638,10 @@
       <c r="AS94" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT94" s="9">
+      <c r="AT94" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU94" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12539,9 +12652,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F95" s="9"/>
       <c r="G95" s="8">
         <v>0.0</v>
       </c>
@@ -12659,7 +12770,10 @@
       <c r="AS95" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT95" s="9">
+      <c r="AT95" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU95" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12670,9 +12784,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F96" s="9"/>
       <c r="G96" s="8">
         <v>0.0</v>
       </c>
@@ -12790,7 +12902,10 @@
       <c r="AS96" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT96" s="9">
+      <c r="AT96" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU96" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12801,9 +12916,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F97" s="9"/>
       <c r="G97" s="8">
         <v>0.0</v>
       </c>
@@ -12921,7 +13034,10 @@
       <c r="AS97" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT97" s="9">
+      <c r="AT97" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU97" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12932,9 +13048,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F98" s="9"/>
       <c r="G98" s="8">
         <v>0.0</v>
       </c>
@@ -13052,7 +13166,10 @@
       <c r="AS98" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT98" s="9">
+      <c r="AT98" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU98" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13063,9 +13180,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F99" s="9"/>
       <c r="G99" s="8">
         <v>0.0</v>
       </c>
@@ -13183,7 +13298,10 @@
       <c r="AS99" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT99" s="9">
+      <c r="AT99" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU99" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13194,9 +13312,7 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F100" s="9"/>
       <c r="G100" s="8">
         <v>0.0</v>
       </c>
@@ -13314,7 +13430,10 @@
       <c r="AS100" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT100" s="9">
+      <c r="AT100" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU100" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13325,9 +13444,7 @@
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F101" s="9"/>
       <c r="G101" s="8">
         <v>0.0</v>
       </c>
@@ -13445,7 +13562,10 @@
       <c r="AS101" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT101" s="9">
+      <c r="AT101" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU101" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13456,9 +13576,7 @@
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F102" s="9"/>
       <c r="G102" s="8">
         <v>0.0</v>
       </c>
@@ -13576,7 +13694,10 @@
       <c r="AS102" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT102" s="9">
+      <c r="AT102" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU102" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13587,9 +13708,7 @@
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F103" s="9"/>
       <c r="G103" s="8">
         <v>0.0</v>
       </c>
@@ -13707,7 +13826,10 @@
       <c r="AS103" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT103" s="9">
+      <c r="AT103" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU103" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13718,9 +13840,7 @@
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F104" s="9"/>
       <c r="G104" s="8">
         <v>0.0</v>
       </c>
@@ -13838,7 +13958,10 @@
       <c r="AS104" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT104" s="9">
+      <c r="AT104" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU104" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13849,9 +13972,7 @@
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F105" s="9"/>
       <c r="G105" s="8">
         <v>0.0</v>
       </c>
@@ -13969,7 +14090,10 @@
       <c r="AS105" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT105" s="9">
+      <c r="AT105" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU105" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -13980,9 +14104,7 @@
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F106" s="9"/>
       <c r="G106" s="8">
         <v>0.0</v>
       </c>
@@ -14100,7 +14222,10 @@
       <c r="AS106" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT106" s="9">
+      <c r="AT106" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU106" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14111,9 +14236,7 @@
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F107" s="9"/>
       <c r="G107" s="8">
         <v>0.0</v>
       </c>
@@ -14231,7 +14354,10 @@
       <c r="AS107" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT107" s="9">
+      <c r="AT107" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU107" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14242,9 +14368,7 @@
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F108" s="9"/>
       <c r="G108" s="8">
         <v>0.0</v>
       </c>
@@ -14362,7 +14486,10 @@
       <c r="AS108" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT108" s="9">
+      <c r="AT108" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU108" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14373,9 +14500,7 @@
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F109" s="9"/>
       <c r="G109" s="8">
         <v>0.0</v>
       </c>
@@ -14493,7 +14618,10 @@
       <c r="AS109" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT109" s="9">
+      <c r="AT109" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU109" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14504,9 +14632,7 @@
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F110" s="9"/>
       <c r="G110" s="8">
         <v>0.0</v>
       </c>
@@ -14624,7 +14750,10 @@
       <c r="AS110" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT110" s="9">
+      <c r="AT110" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU110" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14635,9 +14764,7 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F111" s="9"/>
       <c r="G111" s="8">
         <v>0.0</v>
       </c>
@@ -14755,7 +14882,10 @@
       <c r="AS111" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT111" s="9">
+      <c r="AT111" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU111" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14766,9 +14896,7 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F112" s="9"/>
       <c r="G112" s="8">
         <v>0.0</v>
       </c>
@@ -14886,7 +15014,10 @@
       <c r="AS112" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT112" s="9">
+      <c r="AT112" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU112" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -14897,9 +15028,7 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F113" s="9"/>
       <c r="G113" s="8">
         <v>0.0</v>
       </c>
@@ -15017,7 +15146,10 @@
       <c r="AS113" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT113" s="9">
+      <c r="AT113" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU113" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15028,9 +15160,7 @@
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F114" s="9"/>
       <c r="G114" s="8">
         <v>0.0</v>
       </c>
@@ -15148,7 +15278,10 @@
       <c r="AS114" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT114" s="9">
+      <c r="AT114" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU114" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15159,9 +15292,7 @@
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F115" s="9"/>
       <c r="G115" s="8">
         <v>0.0</v>
       </c>
@@ -15279,7 +15410,10 @@
       <c r="AS115" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT115" s="9">
+      <c r="AT115" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU115" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15290,9 +15424,7 @@
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F116" s="9"/>
       <c r="G116" s="8">
         <v>0.0</v>
       </c>
@@ -15410,7 +15542,10 @@
       <c r="AS116" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT116" s="9">
+      <c r="AT116" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU116" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15421,9 +15556,7 @@
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F117" s="9"/>
       <c r="G117" s="8">
         <v>0.0</v>
       </c>
@@ -15541,7 +15674,10 @@
       <c r="AS117" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT117" s="9">
+      <c r="AT117" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU117" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15552,9 +15688,7 @@
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F118" s="9"/>
       <c r="G118" s="8">
         <v>0.0</v>
       </c>
@@ -15672,7 +15806,10 @@
       <c r="AS118" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT118" s="9">
+      <c r="AT118" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU118" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15683,9 +15820,7 @@
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F119" s="9"/>
       <c r="G119" s="8">
         <v>0.0</v>
       </c>
@@ -15803,7 +15938,10 @@
       <c r="AS119" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT119" s="9">
+      <c r="AT119" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU119" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15814,9 +15952,7 @@
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F120" s="9"/>
       <c r="G120" s="8">
         <v>0.0</v>
       </c>
@@ -15934,7 +16070,10 @@
       <c r="AS120" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT120" s="9">
+      <c r="AT120" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU120" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -15945,9 +16084,7 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F121" s="9"/>
       <c r="G121" s="8">
         <v>0.0</v>
       </c>
@@ -16065,7 +16202,10 @@
       <c r="AS121" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT121" s="9">
+      <c r="AT121" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU121" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16076,9 +16216,7 @@
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F122" s="9"/>
       <c r="G122" s="8">
         <v>0.0</v>
       </c>
@@ -16196,7 +16334,10 @@
       <c r="AS122" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT122" s="9">
+      <c r="AT122" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU122" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16207,9 +16348,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F123" s="9"/>
       <c r="G123" s="8">
         <v>0.0</v>
       </c>
@@ -16327,7 +16466,10 @@
       <c r="AS123" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT123" s="9">
+      <c r="AT123" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU123" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16338,9 +16480,7 @@
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F124" s="9"/>
       <c r="G124" s="8">
         <v>0.0</v>
       </c>
@@ -16458,7 +16598,10 @@
       <c r="AS124" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT124" s="9">
+      <c r="AT124" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU124" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16469,9 +16612,7 @@
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F125" s="9"/>
       <c r="G125" s="8">
         <v>0.0</v>
       </c>
@@ -16589,7 +16730,10 @@
       <c r="AS125" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT125" s="9">
+      <c r="AT125" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU125" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16600,9 +16744,7 @@
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F126" s="9"/>
       <c r="G126" s="8">
         <v>0.0</v>
       </c>
@@ -16720,7 +16862,10 @@
       <c r="AS126" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT126" s="9">
+      <c r="AT126" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU126" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16731,9 +16876,7 @@
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F127" s="9"/>
       <c r="G127" s="8">
         <v>0.0</v>
       </c>
@@ -16851,7 +16994,10 @@
       <c r="AS127" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT127" s="9">
+      <c r="AT127" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU127" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16862,9 +17008,7 @@
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F128" s="9"/>
       <c r="G128" s="8">
         <v>0.0</v>
       </c>
@@ -16982,7 +17126,10 @@
       <c r="AS128" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT128" s="9">
+      <c r="AT128" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU128" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16993,9 +17140,7 @@
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F129" s="9"/>
       <c r="G129" s="8">
         <v>0.0</v>
       </c>
@@ -17113,7 +17258,10 @@
       <c r="AS129" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT129" s="9">
+      <c r="AT129" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU129" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17124,9 +17272,7 @@
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F130" s="9"/>
       <c r="G130" s="8">
         <v>0.0</v>
       </c>
@@ -17244,7 +17390,10 @@
       <c r="AS130" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT130" s="9">
+      <c r="AT130" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU130" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17255,9 +17404,7 @@
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F131" s="9"/>
       <c r="G131" s="8">
         <v>0.0</v>
       </c>
@@ -17375,7 +17522,10 @@
       <c r="AS131" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT131" s="9">
+      <c r="AT131" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU131" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17386,9 +17536,7 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F132" s="9"/>
       <c r="G132" s="8">
         <v>0.0</v>
       </c>
@@ -17506,7 +17654,10 @@
       <c r="AS132" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT132" s="9">
+      <c r="AT132" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU132" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17517,9 +17668,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F133" s="9"/>
       <c r="G133" s="8">
         <v>0.0</v>
       </c>
@@ -17637,7 +17786,10 @@
       <c r="AS133" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT133" s="9">
+      <c r="AT133" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU133" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17648,9 +17800,7 @@
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F134" s="9"/>
       <c r="G134" s="8">
         <v>0.0</v>
       </c>
@@ -17768,7 +17918,10 @@
       <c r="AS134" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT134" s="9">
+      <c r="AT134" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU134" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17779,9 +17932,7 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F135" s="9"/>
       <c r="G135" s="8">
         <v>0.0</v>
       </c>
@@ -17899,7 +18050,10 @@
       <c r="AS135" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT135" s="9">
+      <c r="AT135" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU135" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -17910,9 +18064,7 @@
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F136" s="9"/>
       <c r="G136" s="8">
         <v>0.0</v>
       </c>
@@ -18030,7 +18182,10 @@
       <c r="AS136" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT136" s="9">
+      <c r="AT136" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU136" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18041,9 +18196,7 @@
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F137" s="9"/>
       <c r="G137" s="8">
         <v>0.0</v>
       </c>
@@ -18161,7 +18314,10 @@
       <c r="AS137" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT137" s="9">
+      <c r="AT137" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU137" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18172,9 +18328,7 @@
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F138" s="9"/>
       <c r="G138" s="8">
         <v>0.0</v>
       </c>
@@ -18292,7 +18446,10 @@
       <c r="AS138" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT138" s="9">
+      <c r="AT138" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU138" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18303,9 +18460,7 @@
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F139" s="9"/>
       <c r="G139" s="8">
         <v>0.0</v>
       </c>
@@ -18423,7 +18578,10 @@
       <c r="AS139" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT139" s="9">
+      <c r="AT139" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU139" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18434,9 +18592,7 @@
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F140" s="9"/>
       <c r="G140" s="8">
         <v>0.0</v>
       </c>
@@ -18554,7 +18710,10 @@
       <c r="AS140" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT140" s="9">
+      <c r="AT140" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU140" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18565,9 +18724,7 @@
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F141" s="9"/>
       <c r="G141" s="8">
         <v>0.0</v>
       </c>
@@ -18685,7 +18842,10 @@
       <c r="AS141" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT141" s="9">
+      <c r="AT141" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU141" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18696,9 +18856,7 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F142" s="9"/>
       <c r="G142" s="8">
         <v>0.0</v>
       </c>
@@ -18816,7 +18974,10 @@
       <c r="AS142" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT142" s="9">
+      <c r="AT142" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU142" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18827,9 +18988,7 @@
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F143" s="9"/>
       <c r="G143" s="8">
         <v>0.0</v>
       </c>
@@ -18947,7 +19106,10 @@
       <c r="AS143" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT143" s="9">
+      <c r="AT143" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU143" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -18958,9 +19120,7 @@
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F144" s="9"/>
       <c r="G144" s="8">
         <v>0.0</v>
       </c>
@@ -19078,7 +19238,10 @@
       <c r="AS144" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT144" s="9">
+      <c r="AT144" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU144" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19089,9 +19252,7 @@
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F145" s="9"/>
       <c r="G145" s="8">
         <v>0.0</v>
       </c>
@@ -19209,7 +19370,10 @@
       <c r="AS145" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT145" s="9">
+      <c r="AT145" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU145" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19220,9 +19384,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F146" s="9"/>
       <c r="G146" s="8">
         <v>0.0</v>
       </c>
@@ -19340,7 +19502,10 @@
       <c r="AS146" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT146" s="9">
+      <c r="AT146" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU146" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19351,9 +19516,7 @@
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F147" s="9"/>
       <c r="G147" s="8">
         <v>0.0</v>
       </c>
@@ -19471,7 +19634,10 @@
       <c r="AS147" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT147" s="9">
+      <c r="AT147" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU147" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19482,9 +19648,7 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F148" s="9"/>
       <c r="G148" s="8">
         <v>0.0</v>
       </c>
@@ -19602,7 +19766,10 @@
       <c r="AS148" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT148" s="9">
+      <c r="AT148" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU148" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19613,9 +19780,7 @@
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F149" s="9"/>
       <c r="G149" s="8">
         <v>0.0</v>
       </c>
@@ -19733,7 +19898,10 @@
       <c r="AS149" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT149" s="9">
+      <c r="AT149" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU149" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19744,9 +19912,7 @@
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F150" s="9"/>
       <c r="G150" s="8">
         <v>0.0</v>
       </c>
@@ -19864,7 +20030,10 @@
       <c r="AS150" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT150" s="9">
+      <c r="AT150" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU150" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -19875,9 +20044,7 @@
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F151" s="9"/>
       <c r="G151" s="8">
         <v>0.0</v>
       </c>
@@ -19995,7 +20162,10 @@
       <c r="AS151" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT151" s="9">
+      <c r="AT151" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU151" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20006,9 +20176,7 @@
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F152" s="9"/>
       <c r="G152" s="8">
         <v>0.0</v>
       </c>
@@ -20126,7 +20294,10 @@
       <c r="AS152" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT152" s="9">
+      <c r="AT152" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU152" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20137,9 +20308,7 @@
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F153" s="9"/>
       <c r="G153" s="8">
         <v>0.0</v>
       </c>
@@ -20257,7 +20426,10 @@
       <c r="AS153" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT153" s="9">
+      <c r="AT153" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU153" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20268,9 +20440,7 @@
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F154" s="9"/>
       <c r="G154" s="8">
         <v>0.0</v>
       </c>
@@ -20388,7 +20558,10 @@
       <c r="AS154" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT154" s="9">
+      <c r="AT154" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU154" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20399,9 +20572,7 @@
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F155" s="9"/>
       <c r="G155" s="8">
         <v>0.0</v>
       </c>
@@ -20519,7 +20690,10 @@
       <c r="AS155" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT155" s="9">
+      <c r="AT155" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU155" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20530,9 +20704,7 @@
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F156" s="9"/>
       <c r="G156" s="8">
         <v>0.0</v>
       </c>
@@ -20650,7 +20822,10 @@
       <c r="AS156" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT156" s="9">
+      <c r="AT156" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU156" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20661,9 +20836,7 @@
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F157" s="9"/>
       <c r="G157" s="8">
         <v>0.0</v>
       </c>
@@ -20781,7 +20954,10 @@
       <c r="AS157" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT157" s="9">
+      <c r="AT157" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU157" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20792,9 +20968,7 @@
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F158" s="9"/>
       <c r="G158" s="8">
         <v>0.0</v>
       </c>
@@ -20912,7 +21086,10 @@
       <c r="AS158" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT158" s="9">
+      <c r="AT158" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU158" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20923,9 +21100,7 @@
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F159" s="9"/>
       <c r="G159" s="8">
         <v>0.0</v>
       </c>
@@ -21043,7 +21218,10 @@
       <c r="AS159" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT159" s="9">
+      <c r="AT159" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU159" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21054,9 +21232,7 @@
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F160" s="9"/>
       <c r="G160" s="8">
         <v>0.0</v>
       </c>
@@ -21174,7 +21350,10 @@
       <c r="AS160" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT160" s="9">
+      <c r="AT160" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU160" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21185,9 +21364,7 @@
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F161" s="9"/>
       <c r="G161" s="8">
         <v>0.0</v>
       </c>
@@ -21305,7 +21482,10 @@
       <c r="AS161" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT161" s="9">
+      <c r="AT161" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU161" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21316,9 +21496,7 @@
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F162" s="9"/>
       <c r="G162" s="8">
         <v>0.0</v>
       </c>
@@ -21436,7 +21614,10 @@
       <c r="AS162" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT162" s="9">
+      <c r="AT162" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU162" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21447,9 +21628,7 @@
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F163" s="9"/>
       <c r="G163" s="8">
         <v>0.0</v>
       </c>
@@ -21567,7 +21746,10 @@
       <c r="AS163" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT163" s="9">
+      <c r="AT163" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU163" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21578,9 +21760,7 @@
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F164" s="9"/>
       <c r="G164" s="8">
         <v>0.0</v>
       </c>
@@ -21698,7 +21878,10 @@
       <c r="AS164" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT164" s="9">
+      <c r="AT164" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU164" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21709,9 +21892,7 @@
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
-      <c r="F165" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F165" s="9"/>
       <c r="G165" s="8">
         <v>0.0</v>
       </c>
@@ -21829,7 +22010,10 @@
       <c r="AS165" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT165" s="9">
+      <c r="AT165" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU165" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21840,9 +22024,7 @@
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
-      <c r="F166" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F166" s="9"/>
       <c r="G166" s="8">
         <v>0.0</v>
       </c>
@@ -21960,7 +22142,10 @@
       <c r="AS166" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT166" s="9">
+      <c r="AT166" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU166" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -21971,9 +22156,7 @@
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
-      <c r="F167" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F167" s="9"/>
       <c r="G167" s="8">
         <v>0.0</v>
       </c>
@@ -22091,7 +22274,10 @@
       <c r="AS167" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT167" s="9">
+      <c r="AT167" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU167" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22102,9 +22288,7 @@
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
-      <c r="F168" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F168" s="9"/>
       <c r="G168" s="8">
         <v>0.0</v>
       </c>
@@ -22222,7 +22406,10 @@
       <c r="AS168" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT168" s="9">
+      <c r="AT168" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU168" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22233,9 +22420,7 @@
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
-      <c r="F169" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F169" s="9"/>
       <c r="G169" s="8">
         <v>0.0</v>
       </c>
@@ -22353,7 +22538,10 @@
       <c r="AS169" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT169" s="9">
+      <c r="AT169" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU169" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22364,9 +22552,7 @@
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
-      <c r="F170" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F170" s="9"/>
       <c r="G170" s="8">
         <v>0.0</v>
       </c>
@@ -22484,7 +22670,10 @@
       <c r="AS170" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT170" s="9">
+      <c r="AT170" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU170" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22495,9 +22684,7 @@
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
-      <c r="F171" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F171" s="9"/>
       <c r="G171" s="8">
         <v>0.0</v>
       </c>
@@ -22615,7 +22802,10 @@
       <c r="AS171" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT171" s="9">
+      <c r="AT171" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU171" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22626,9 +22816,7 @@
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
-      <c r="F172" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F172" s="9"/>
       <c r="G172" s="8">
         <v>0.0</v>
       </c>
@@ -22746,7 +22934,10 @@
       <c r="AS172" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT172" s="9">
+      <c r="AT172" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU172" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22757,9 +22948,7 @@
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
-      <c r="F173" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F173" s="9"/>
       <c r="G173" s="8">
         <v>0.0</v>
       </c>
@@ -22877,7 +23066,10 @@
       <c r="AS173" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT173" s="9">
+      <c r="AT173" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU173" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -22888,9 +23080,7 @@
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
-      <c r="F174" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F174" s="9"/>
       <c r="G174" s="8">
         <v>0.0</v>
       </c>
@@ -23008,7 +23198,10 @@
       <c r="AS174" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT174" s="9">
+      <c r="AT174" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU174" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23019,9 +23212,7 @@
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
-      <c r="F175" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F175" s="9"/>
       <c r="G175" s="8">
         <v>0.0</v>
       </c>
@@ -23139,7 +23330,10 @@
       <c r="AS175" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT175" s="9">
+      <c r="AT175" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU175" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23150,9 +23344,7 @@
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
-      <c r="F176" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F176" s="9"/>
       <c r="G176" s="8">
         <v>0.0</v>
       </c>
@@ -23270,7 +23462,10 @@
       <c r="AS176" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT176" s="9">
+      <c r="AT176" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU176" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23281,9 +23476,7 @@
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9"/>
-      <c r="F177" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F177" s="9"/>
       <c r="G177" s="8">
         <v>0.0</v>
       </c>
@@ -23401,7 +23594,10 @@
       <c r="AS177" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT177" s="9">
+      <c r="AT177" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU177" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23412,9 +23608,7 @@
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
-      <c r="F178" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F178" s="9"/>
       <c r="G178" s="8">
         <v>0.0</v>
       </c>
@@ -23532,7 +23726,10 @@
       <c r="AS178" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT178" s="9">
+      <c r="AT178" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU178" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23543,9 +23740,7 @@
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F179" s="9"/>
       <c r="G179" s="8">
         <v>0.0</v>
       </c>
@@ -23663,7 +23858,10 @@
       <c r="AS179" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT179" s="9">
+      <c r="AT179" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU179" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23674,9 +23872,7 @@
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
-      <c r="F180" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F180" s="9"/>
       <c r="G180" s="8">
         <v>0.0</v>
       </c>
@@ -23794,7 +23990,10 @@
       <c r="AS180" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT180" s="9">
+      <c r="AT180" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU180" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23805,9 +24004,7 @@
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
-      <c r="F181" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F181" s="9"/>
       <c r="G181" s="8">
         <v>0.0</v>
       </c>
@@ -23925,7 +24122,10 @@
       <c r="AS181" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT181" s="9">
+      <c r="AT181" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU181" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -23936,9 +24136,7 @@
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
-      <c r="F182" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F182" s="9"/>
       <c r="G182" s="8">
         <v>0.0</v>
       </c>
@@ -24056,7 +24254,10 @@
       <c r="AS182" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT182" s="9">
+      <c r="AT182" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU182" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24067,9 +24268,7 @@
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
-      <c r="F183" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F183" s="9"/>
       <c r="G183" s="8">
         <v>0.0</v>
       </c>
@@ -24187,7 +24386,10 @@
       <c r="AS183" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT183" s="9">
+      <c r="AT183" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU183" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24198,9 +24400,7 @@
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
-      <c r="F184" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F184" s="9"/>
       <c r="G184" s="8">
         <v>0.0</v>
       </c>
@@ -24318,7 +24518,10 @@
       <c r="AS184" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT184" s="9">
+      <c r="AT184" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU184" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24329,9 +24532,7 @@
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
-      <c r="F185" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F185" s="9"/>
       <c r="G185" s="8">
         <v>0.0</v>
       </c>
@@ -24449,7 +24650,10 @@
       <c r="AS185" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT185" s="9">
+      <c r="AT185" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU185" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24460,9 +24664,7 @@
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
-      <c r="F186" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F186" s="9"/>
       <c r="G186" s="8">
         <v>0.0</v>
       </c>
@@ -24580,7 +24782,10 @@
       <c r="AS186" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT186" s="9">
+      <c r="AT186" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU186" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24591,9 +24796,7 @@
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
-      <c r="F187" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F187" s="9"/>
       <c r="G187" s="8">
         <v>0.0</v>
       </c>
@@ -24711,7 +24914,10 @@
       <c r="AS187" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT187" s="9">
+      <c r="AT187" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU187" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24722,9 +24928,7 @@
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
-      <c r="F188" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F188" s="9"/>
       <c r="G188" s="8">
         <v>0.0</v>
       </c>
@@ -24842,7 +25046,10 @@
       <c r="AS188" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT188" s="9">
+      <c r="AT188" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU188" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24853,9 +25060,7 @@
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
-      <c r="F189" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F189" s="9"/>
       <c r="G189" s="8">
         <v>0.0</v>
       </c>
@@ -24973,7 +25178,10 @@
       <c r="AS189" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT189" s="9">
+      <c r="AT189" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU189" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -24984,9 +25192,7 @@
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
-      <c r="F190" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F190" s="9"/>
       <c r="G190" s="8">
         <v>0.0</v>
       </c>
@@ -25104,7 +25310,10 @@
       <c r="AS190" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT190" s="9">
+      <c r="AT190" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU190" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25115,9 +25324,7 @@
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
-      <c r="F191" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F191" s="9"/>
       <c r="G191" s="8">
         <v>0.0</v>
       </c>
@@ -25235,7 +25442,10 @@
       <c r="AS191" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT191" s="9">
+      <c r="AT191" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU191" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25246,9 +25456,7 @@
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
-      <c r="F192" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F192" s="9"/>
       <c r="G192" s="8">
         <v>0.0</v>
       </c>
@@ -25366,7 +25574,10 @@
       <c r="AS192" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT192" s="9">
+      <c r="AT192" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU192" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25377,9 +25588,7 @@
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
-      <c r="F193" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F193" s="9"/>
       <c r="G193" s="8">
         <v>0.0</v>
       </c>
@@ -25497,7 +25706,10 @@
       <c r="AS193" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT193" s="9">
+      <c r="AT193" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU193" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25508,9 +25720,7 @@
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
-      <c r="F194" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F194" s="9"/>
       <c r="G194" s="8">
         <v>0.0</v>
       </c>
@@ -25628,7 +25838,10 @@
       <c r="AS194" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT194" s="9">
+      <c r="AT194" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU194" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25639,9 +25852,7 @@
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
-      <c r="F195" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F195" s="9"/>
       <c r="G195" s="8">
         <v>0.0</v>
       </c>
@@ -25759,7 +25970,10 @@
       <c r="AS195" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT195" s="9">
+      <c r="AT195" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU195" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25770,9 +25984,7 @@
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
-      <c r="F196" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F196" s="9"/>
       <c r="G196" s="8">
         <v>0.0</v>
       </c>
@@ -25890,7 +26102,10 @@
       <c r="AS196" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT196" s="9">
+      <c r="AT196" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU196" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25901,9 +26116,7 @@
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F197" s="9"/>
       <c r="G197" s="8">
         <v>0.0</v>
       </c>
@@ -26021,7 +26234,10 @@
       <c r="AS197" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT197" s="9">
+      <c r="AT197" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU197" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26032,9 +26248,7 @@
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F198" s="9"/>
       <c r="G198" s="8">
         <v>0.0</v>
       </c>
@@ -26152,7 +26366,10 @@
       <c r="AS198" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT198" s="9">
+      <c r="AT198" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU198" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26163,9 +26380,7 @@
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F199" s="9"/>
       <c r="G199" s="8">
         <v>0.0</v>
       </c>
@@ -26283,7 +26498,10 @@
       <c r="AS199" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT199" s="9">
+      <c r="AT199" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU199" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26294,9 +26512,7 @@
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
-      <c r="F200" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F200" s="9"/>
       <c r="G200" s="8">
         <v>0.0</v>
       </c>
@@ -26414,7 +26630,10 @@
       <c r="AS200" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT200" s="9">
+      <c r="AT200" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU200" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26425,9 +26644,7 @@
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="9"/>
-      <c r="F201" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F201" s="9"/>
       <c r="G201" s="8">
         <v>0.0</v>
       </c>
@@ -26545,7 +26762,10 @@
       <c r="AS201" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT201" s="9">
+      <c r="AT201" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU201" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26556,9 +26776,7 @@
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
-      <c r="F202" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F202" s="9"/>
       <c r="G202" s="8">
         <v>0.0</v>
       </c>
@@ -26676,7 +26894,10 @@
       <c r="AS202" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT202" s="9">
+      <c r="AT202" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU202" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26687,9 +26908,7 @@
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
-      <c r="F203" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F203" s="9"/>
       <c r="G203" s="8">
         <v>0.0</v>
       </c>
@@ -26807,7 +27026,10 @@
       <c r="AS203" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT203" s="9">
+      <c r="AT203" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU203" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26818,9 +27040,7 @@
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
-      <c r="F204" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F204" s="9"/>
       <c r="G204" s="8">
         <v>0.0</v>
       </c>
@@ -26938,7 +27158,10 @@
       <c r="AS204" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT204" s="9">
+      <c r="AT204" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU204" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -26949,9 +27172,7 @@
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
-      <c r="F205" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F205" s="9"/>
       <c r="G205" s="8">
         <v>0.0</v>
       </c>
@@ -27069,7 +27290,10 @@
       <c r="AS205" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT205" s="9">
+      <c r="AT205" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU205" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27080,9 +27304,7 @@
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
-      <c r="F206" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F206" s="9"/>
       <c r="G206" s="8">
         <v>0.0</v>
       </c>
@@ -27200,7 +27422,10 @@
       <c r="AS206" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT206" s="9">
+      <c r="AT206" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU206" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27211,9 +27436,7 @@
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9"/>
-      <c r="F207" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F207" s="9"/>
       <c r="G207" s="8">
         <v>0.0</v>
       </c>
@@ -27331,7 +27554,10 @@
       <c r="AS207" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT207" s="9">
+      <c r="AT207" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU207" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27342,9 +27568,7 @@
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F208" s="9"/>
       <c r="G208" s="8">
         <v>0.0</v>
       </c>
@@ -27462,7 +27686,10 @@
       <c r="AS208" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT208" s="9">
+      <c r="AT208" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU208" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27473,9 +27700,7 @@
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="9"/>
-      <c r="F209" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F209" s="9"/>
       <c r="G209" s="8">
         <v>0.0</v>
       </c>
@@ -27593,7 +27818,10 @@
       <c r="AS209" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT209" s="9">
+      <c r="AT209" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU209" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27604,9 +27832,7 @@
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
-      <c r="F210" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F210" s="9"/>
       <c r="G210" s="8">
         <v>0.0</v>
       </c>
@@ -27724,7 +27950,10 @@
       <c r="AS210" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT210" s="9">
+      <c r="AT210" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU210" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27735,9 +27964,7 @@
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="9"/>
-      <c r="F211" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F211" s="9"/>
       <c r="G211" s="8">
         <v>0.0</v>
       </c>
@@ -27855,7 +28082,10 @@
       <c r="AS211" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT211" s="9">
+      <c r="AT211" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU211" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27866,9 +28096,7 @@
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
-      <c r="F212" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F212" s="9"/>
       <c r="G212" s="8">
         <v>0.0</v>
       </c>
@@ -27986,7 +28214,10 @@
       <c r="AS212" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT212" s="9">
+      <c r="AT212" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU212" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27997,9 +28228,7 @@
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="9"/>
-      <c r="F213" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F213" s="9"/>
       <c r="G213" s="8">
         <v>0.0</v>
       </c>
@@ -28117,7 +28346,10 @@
       <c r="AS213" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT213" s="9">
+      <c r="AT213" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU213" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -28128,9 +28360,7 @@
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
-      <c r="F214" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F214" s="9"/>
       <c r="G214" s="8">
         <v>0.0</v>
       </c>
@@ -28248,7 +28478,10 @@
       <c r="AS214" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT214" s="9">
+      <c r="AT214" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU214" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -28259,9 +28492,7 @@
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="9"/>
-      <c r="F215" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F215" s="9"/>
       <c r="G215" s="8">
         <v>0.0</v>
       </c>
@@ -28379,7 +28610,10 @@
       <c r="AS215" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT215" s="9">
+      <c r="AT215" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU215" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -28390,9 +28624,7 @@
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
-      <c r="F216" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F216" s="9"/>
       <c r="G216" s="8">
         <v>0.0</v>
       </c>
@@ -28510,7 +28742,10 @@
       <c r="AS216" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT216" s="9">
+      <c r="AT216" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU216" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -28521,9 +28756,7 @@
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F217" s="9"/>
       <c r="G217" s="8">
         <v>0.0</v>
       </c>
@@ -28641,7 +28874,10 @@
       <c r="AS217" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT217" s="9">
+      <c r="AT217" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU217" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -28652,9 +28888,7 @@
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
-      <c r="F218" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F218" s="9"/>
       <c r="G218" s="8">
         <v>0.0</v>
       </c>
@@ -28772,7 +29006,10 @@
       <c r="AS218" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT218" s="9">
+      <c r="AT218" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU218" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -28783,9 +29020,7 @@
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
-      <c r="F219" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F219" s="9"/>
       <c r="G219" s="8">
         <v>0.0</v>
       </c>
@@ -28903,7 +29138,10 @@
       <c r="AS219" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT219" s="9">
+      <c r="AT219" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU219" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -28914,9 +29152,7 @@
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
-      <c r="F220" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F220" s="9"/>
       <c r="G220" s="8">
         <v>0.0</v>
       </c>
@@ -29034,7 +29270,10 @@
       <c r="AS220" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT220" s="9">
+      <c r="AT220" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU220" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29045,9 +29284,7 @@
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
-      <c r="F221" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F221" s="9"/>
       <c r="G221" s="8">
         <v>0.0</v>
       </c>
@@ -29165,7 +29402,10 @@
       <c r="AS221" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT221" s="9">
+      <c r="AT221" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU221" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29176,9 +29416,7 @@
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
-      <c r="F222" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F222" s="9"/>
       <c r="G222" s="8">
         <v>0.0</v>
       </c>
@@ -29296,7 +29534,10 @@
       <c r="AS222" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT222" s="9">
+      <c r="AT222" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU222" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29307,9 +29548,7 @@
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
-      <c r="F223" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F223" s="9"/>
       <c r="G223" s="8">
         <v>0.0</v>
       </c>
@@ -29427,7 +29666,10 @@
       <c r="AS223" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT223" s="9">
+      <c r="AT223" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU223" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29438,9 +29680,7 @@
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
-      <c r="F224" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F224" s="9"/>
       <c r="G224" s="8">
         <v>0.0</v>
       </c>
@@ -29558,7 +29798,10 @@
       <c r="AS224" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT224" s="9">
+      <c r="AT224" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU224" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29569,9 +29812,7 @@
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
-      <c r="F225" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F225" s="9"/>
       <c r="G225" s="8">
         <v>0.0</v>
       </c>
@@ -29689,7 +29930,10 @@
       <c r="AS225" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT225" s="9">
+      <c r="AT225" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU225" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29700,9 +29944,7 @@
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
-      <c r="F226" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F226" s="9"/>
       <c r="G226" s="8">
         <v>0.0</v>
       </c>
@@ -29820,7 +30062,10 @@
       <c r="AS226" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT226" s="9">
+      <c r="AT226" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU226" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29831,9 +30076,7 @@
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
-      <c r="F227" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F227" s="9"/>
       <c r="G227" s="8">
         <v>0.0</v>
       </c>
@@ -29951,7 +30194,10 @@
       <c r="AS227" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT227" s="9">
+      <c r="AT227" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU227" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -29962,9 +30208,7 @@
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
-      <c r="F228" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F228" s="9"/>
       <c r="G228" s="8">
         <v>0.0</v>
       </c>
@@ -30082,7 +30326,10 @@
       <c r="AS228" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT228" s="9">
+      <c r="AT228" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU228" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -30093,9 +30340,7 @@
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
-      <c r="F229" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F229" s="9"/>
       <c r="G229" s="8">
         <v>0.0</v>
       </c>
@@ -30213,7 +30458,10 @@
       <c r="AS229" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT229" s="9">
+      <c r="AT229" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU229" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -30224,9 +30472,7 @@
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
-      <c r="F230" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F230" s="9"/>
       <c r="G230" s="8">
         <v>0.0</v>
       </c>
@@ -30344,7 +30590,10 @@
       <c r="AS230" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT230" s="9">
+      <c r="AT230" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU230" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -30355,9 +30604,7 @@
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="9"/>
-      <c r="F231" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F231" s="9"/>
       <c r="G231" s="8">
         <v>0.0</v>
       </c>
@@ -30475,7 +30722,10 @@
       <c r="AS231" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT231" s="9">
+      <c r="AT231" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU231" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -30486,9 +30736,7 @@
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
-      <c r="F232" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F232" s="9"/>
       <c r="G232" s="8">
         <v>0.0</v>
       </c>
@@ -30606,7 +30854,10 @@
       <c r="AS232" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT232" s="9">
+      <c r="AT232" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU232" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -30617,9 +30868,7 @@
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9"/>
-      <c r="F233" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F233" s="9"/>
       <c r="G233" s="8">
         <v>0.0</v>
       </c>
@@ -30737,7 +30986,10 @@
       <c r="AS233" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT233" s="9">
+      <c r="AT233" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU233" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -30748,9 +31000,7 @@
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
-      <c r="F234" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F234" s="9"/>
       <c r="G234" s="8">
         <v>0.0</v>
       </c>
@@ -30868,7 +31118,10 @@
       <c r="AS234" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT234" s="9">
+      <c r="AT234" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU234" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -30879,9 +31132,7 @@
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9"/>
-      <c r="F235" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F235" s="9"/>
       <c r="G235" s="8">
         <v>0.0</v>
       </c>
@@ -30999,7 +31250,10 @@
       <c r="AS235" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT235" s="9">
+      <c r="AT235" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU235" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -31010,9 +31264,7 @@
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
-      <c r="F236" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F236" s="9"/>
       <c r="G236" s="8">
         <v>0.0</v>
       </c>
@@ -31130,7 +31382,10 @@
       <c r="AS236" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT236" s="9">
+      <c r="AT236" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU236" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -31141,9 +31396,7 @@
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="9"/>
-      <c r="F237" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F237" s="9"/>
       <c r="G237" s="8">
         <v>0.0</v>
       </c>
@@ -31261,7 +31514,10 @@
       <c r="AS237" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT237" s="9">
+      <c r="AT237" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU237" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -31272,9 +31528,7 @@
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
-      <c r="F238" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F238" s="9"/>
       <c r="G238" s="8">
         <v>0.0</v>
       </c>
@@ -31392,7 +31646,10 @@
       <c r="AS238" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT238" s="9">
+      <c r="AT238" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU238" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -31403,9 +31660,7 @@
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="9"/>
-      <c r="F239" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F239" s="9"/>
       <c r="G239" s="8">
         <v>0.0</v>
       </c>
@@ -31523,7 +31778,10 @@
       <c r="AS239" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT239" s="9">
+      <c r="AT239" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU239" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -31534,9 +31792,7 @@
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
-      <c r="F240" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F240" s="9"/>
       <c r="G240" s="8">
         <v>0.0</v>
       </c>
@@ -31654,7 +31910,10 @@
       <c r="AS240" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT240" s="9">
+      <c r="AT240" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU240" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -31665,9 +31924,7 @@
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="9"/>
-      <c r="F241" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F241" s="9"/>
       <c r="G241" s="8">
         <v>0.0</v>
       </c>
@@ -31785,7 +32042,10 @@
       <c r="AS241" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT241" s="9">
+      <c r="AT241" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU241" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -31796,9 +32056,7 @@
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
-      <c r="F242" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F242" s="9"/>
       <c r="G242" s="8">
         <v>0.0</v>
       </c>
@@ -31916,7 +32174,10 @@
       <c r="AS242" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT242" s="9">
+      <c r="AT242" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU242" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -31927,9 +32188,7 @@
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="9"/>
-      <c r="F243" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F243" s="9"/>
       <c r="G243" s="8">
         <v>0.0</v>
       </c>
@@ -32047,7 +32306,10 @@
       <c r="AS243" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT243" s="9">
+      <c r="AT243" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU243" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -32058,9 +32320,7 @@
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
-      <c r="F244" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F244" s="9"/>
       <c r="G244" s="8">
         <v>0.0</v>
       </c>
@@ -32178,7 +32438,10 @@
       <c r="AS244" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT244" s="9">
+      <c r="AT244" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU244" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -32189,9 +32452,7 @@
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
-      <c r="F245" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F245" s="9"/>
       <c r="G245" s="8">
         <v>0.0</v>
       </c>
@@ -32309,7 +32570,10 @@
       <c r="AS245" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT245" s="9">
+      <c r="AT245" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU245" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -32320,9 +32584,7 @@
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
-      <c r="F246" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F246" s="9"/>
       <c r="G246" s="8">
         <v>0.0</v>
       </c>
@@ -32440,7 +32702,10 @@
       <c r="AS246" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT246" s="9">
+      <c r="AT246" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU246" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -32451,9 +32716,7 @@
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
-      <c r="F247" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F247" s="9"/>
       <c r="G247" s="8">
         <v>0.0</v>
       </c>
@@ -32571,7 +32834,10 @@
       <c r="AS247" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT247" s="9">
+      <c r="AT247" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU247" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -32582,9 +32848,7 @@
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
-      <c r="F248" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F248" s="9"/>
       <c r="G248" s="8">
         <v>0.0</v>
       </c>
@@ -32702,7 +32966,10 @@
       <c r="AS248" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT248" s="9">
+      <c r="AT248" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU248" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -32713,9 +32980,7 @@
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
-      <c r="F249" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F249" s="9"/>
       <c r="G249" s="8">
         <v>0.0</v>
       </c>
@@ -32833,7 +33098,10 @@
       <c r="AS249" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT249" s="9">
+      <c r="AT249" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU249" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -32844,9 +33112,7 @@
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
-      <c r="F250" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F250" s="9"/>
       <c r="G250" s="8">
         <v>0.0</v>
       </c>
@@ -32964,7 +33230,10 @@
       <c r="AS250" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT250" s="9">
+      <c r="AT250" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU250" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -32975,9 +33244,7 @@
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
-      <c r="F251" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F251" s="9"/>
       <c r="G251" s="8">
         <v>0.0</v>
       </c>
@@ -33095,7 +33362,10 @@
       <c r="AS251" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT251" s="9">
+      <c r="AT251" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU251" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -33106,9 +33376,7 @@
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
-      <c r="F252" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F252" s="9"/>
       <c r="G252" s="8">
         <v>0.0</v>
       </c>
@@ -33226,7 +33494,10 @@
       <c r="AS252" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT252" s="9">
+      <c r="AT252" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU252" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -33237,9 +33508,7 @@
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
-      <c r="F253" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F253" s="9"/>
       <c r="G253" s="8">
         <v>0.0</v>
       </c>
@@ -33357,7 +33626,10 @@
       <c r="AS253" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT253" s="9">
+      <c r="AT253" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU253" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -33368,9 +33640,7 @@
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
-      <c r="F254" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F254" s="9"/>
       <c r="G254" s="8">
         <v>0.0</v>
       </c>
@@ -33488,7 +33758,10 @@
       <c r="AS254" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT254" s="9">
+      <c r="AT254" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU254" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -33499,9 +33772,7 @@
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
-      <c r="F255" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F255" s="9"/>
       <c r="G255" s="8">
         <v>0.0</v>
       </c>
@@ -33619,7 +33890,10 @@
       <c r="AS255" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT255" s="9">
+      <c r="AT255" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU255" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -33630,9 +33904,7 @@
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
-      <c r="F256" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F256" s="9"/>
       <c r="G256" s="8">
         <v>0.0</v>
       </c>
@@ -33750,7 +34022,10 @@
       <c r="AS256" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT256" s="9">
+      <c r="AT256" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU256" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -33761,9 +34036,7 @@
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
-      <c r="F257" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F257" s="9"/>
       <c r="G257" s="8">
         <v>0.0</v>
       </c>
@@ -33881,7 +34154,10 @@
       <c r="AS257" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT257" s="9">
+      <c r="AT257" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU257" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -33892,9 +34168,7 @@
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
-      <c r="F258" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F258" s="9"/>
       <c r="G258" s="8">
         <v>0.0</v>
       </c>
@@ -34012,7 +34286,10 @@
       <c r="AS258" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT258" s="9">
+      <c r="AT258" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU258" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34023,9 +34300,7 @@
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="9"/>
-      <c r="F259" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F259" s="9"/>
       <c r="G259" s="8">
         <v>0.0</v>
       </c>
@@ -34143,7 +34418,10 @@
       <c r="AS259" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT259" s="9">
+      <c r="AT259" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU259" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34154,9 +34432,7 @@
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
-      <c r="F260" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F260" s="9"/>
       <c r="G260" s="8">
         <v>0.0</v>
       </c>
@@ -34274,7 +34550,10 @@
       <c r="AS260" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT260" s="9">
+      <c r="AT260" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU260" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34285,9 +34564,7 @@
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="9"/>
-      <c r="F261" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F261" s="9"/>
       <c r="G261" s="8">
         <v>0.0</v>
       </c>
@@ -34405,7 +34682,10 @@
       <c r="AS261" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT261" s="9">
+      <c r="AT261" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU261" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34416,9 +34696,7 @@
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
-      <c r="F262" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F262" s="9"/>
       <c r="G262" s="8">
         <v>0.0</v>
       </c>
@@ -34536,7 +34814,10 @@
       <c r="AS262" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT262" s="9">
+      <c r="AT262" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU262" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34547,9 +34828,7 @@
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
-      <c r="F263" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F263" s="9"/>
       <c r="G263" s="8">
         <v>0.0</v>
       </c>
@@ -34667,7 +34946,10 @@
       <c r="AS263" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT263" s="9">
+      <c r="AT263" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU263" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34678,9 +34960,7 @@
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
-      <c r="F264" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F264" s="9"/>
       <c r="G264" s="8">
         <v>0.0</v>
       </c>
@@ -34798,7 +35078,10 @@
       <c r="AS264" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT264" s="9">
+      <c r="AT264" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU264" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34809,9 +35092,7 @@
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="9"/>
-      <c r="F265" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F265" s="9"/>
       <c r="G265" s="8">
         <v>0.0</v>
       </c>
@@ -34929,7 +35210,10 @@
       <c r="AS265" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT265" s="9">
+      <c r="AT265" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU265" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -34940,9 +35224,7 @@
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
-      <c r="F266" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F266" s="9"/>
       <c r="G266" s="8">
         <v>0.0</v>
       </c>
@@ -35060,7 +35342,10 @@
       <c r="AS266" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT266" s="9">
+      <c r="AT266" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU266" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -35071,9 +35356,7 @@
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
       <c r="E267" s="9"/>
-      <c r="F267" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F267" s="9"/>
       <c r="G267" s="8">
         <v>0.0</v>
       </c>
@@ -35191,7 +35474,10 @@
       <c r="AS267" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT267" s="9">
+      <c r="AT267" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU267" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -35202,9 +35488,7 @@
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
-      <c r="F268" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F268" s="9"/>
       <c r="G268" s="8">
         <v>0.0</v>
       </c>
@@ -35322,7 +35606,10 @@
       <c r="AS268" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT268" s="9">
+      <c r="AT268" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU268" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -35333,9 +35620,7 @@
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="9"/>
-      <c r="F269" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F269" s="9"/>
       <c r="G269" s="8">
         <v>0.0</v>
       </c>
@@ -35453,7 +35738,10 @@
       <c r="AS269" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT269" s="9">
+      <c r="AT269" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU269" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -35464,9 +35752,7 @@
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
-      <c r="F270" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F270" s="9"/>
       <c r="G270" s="8">
         <v>0.0</v>
       </c>
@@ -35584,7 +35870,10 @@
       <c r="AS270" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT270" s="9">
+      <c r="AT270" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU270" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -35595,9 +35884,7 @@
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
-      <c r="F271" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F271" s="9"/>
       <c r="G271" s="8">
         <v>0.0</v>
       </c>
@@ -35715,7 +36002,10 @@
       <c r="AS271" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT271" s="9">
+      <c r="AT271" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU271" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -35726,9 +36016,7 @@
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
-      <c r="F272" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F272" s="9"/>
       <c r="G272" s="8">
         <v>0.0</v>
       </c>
@@ -35846,7 +36134,10 @@
       <c r="AS272" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT272" s="9">
+      <c r="AT272" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU272" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -35857,9 +36148,7 @@
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
       <c r="E273" s="9"/>
-      <c r="F273" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F273" s="9"/>
       <c r="G273" s="8">
         <v>0.0</v>
       </c>
@@ -35977,7 +36266,10 @@
       <c r="AS273" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT273" s="9">
+      <c r="AT273" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU273" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -35988,9 +36280,7 @@
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
-      <c r="F274" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F274" s="9"/>
       <c r="G274" s="8">
         <v>0.0</v>
       </c>
@@ -36108,7 +36398,10 @@
       <c r="AS274" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT274" s="9">
+      <c r="AT274" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU274" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -36119,9 +36412,7 @@
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="9"/>
-      <c r="F275" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F275" s="9"/>
       <c r="G275" s="8">
         <v>0.0</v>
       </c>
@@ -36239,7 +36530,10 @@
       <c r="AS275" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT275" s="9">
+      <c r="AT275" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU275" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -36250,9 +36544,7 @@
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
-      <c r="F276" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F276" s="9"/>
       <c r="G276" s="8">
         <v>0.0</v>
       </c>
@@ -36370,7 +36662,10 @@
       <c r="AS276" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT276" s="9">
+      <c r="AT276" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU276" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -36381,9 +36676,7 @@
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="9"/>
-      <c r="F277" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F277" s="9"/>
       <c r="G277" s="8">
         <v>0.0</v>
       </c>
@@ -36501,7 +36794,10 @@
       <c r="AS277" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT277" s="9">
+      <c r="AT277" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU277" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -36512,9 +36808,7 @@
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
-      <c r="F278" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F278" s="9"/>
       <c r="G278" s="8">
         <v>0.0</v>
       </c>
@@ -36632,7 +36926,10 @@
       <c r="AS278" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT278" s="9">
+      <c r="AT278" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU278" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -36643,9 +36940,7 @@
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
-      <c r="F279" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F279" s="9"/>
       <c r="G279" s="8">
         <v>0.0</v>
       </c>
@@ -36763,7 +37058,10 @@
       <c r="AS279" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT279" s="9">
+      <c r="AT279" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU279" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -36774,9 +37072,7 @@
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
-      <c r="F280" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F280" s="9"/>
       <c r="G280" s="8">
         <v>0.0</v>
       </c>
@@ -36894,7 +37190,10 @@
       <c r="AS280" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT280" s="9">
+      <c r="AT280" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU280" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -36905,9 +37204,7 @@
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="9"/>
-      <c r="F281" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F281" s="9"/>
       <c r="G281" s="8">
         <v>0.0</v>
       </c>
@@ -37025,7 +37322,10 @@
       <c r="AS281" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT281" s="9">
+      <c r="AT281" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU281" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -37036,9 +37336,7 @@
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
-      <c r="F282" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F282" s="9"/>
       <c r="G282" s="8">
         <v>0.0</v>
       </c>
@@ -37156,7 +37454,10 @@
       <c r="AS282" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT282" s="9">
+      <c r="AT282" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU282" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -37167,9 +37468,7 @@
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="9"/>
-      <c r="F283" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F283" s="9"/>
       <c r="G283" s="8">
         <v>0.0</v>
       </c>
@@ -37287,7 +37586,10 @@
       <c r="AS283" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT283" s="9">
+      <c r="AT283" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU283" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -37298,9 +37600,7 @@
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
-      <c r="F284" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="F284" s="9"/>
       <c r="G284" s="8">
         <v>0.0</v>
       </c>
@@ -37418,14 +37718,17 @@
       <c r="AS284" s="8">
         <v>0.0</v>
       </c>
-      <c r="AT284" s="9">
+      <c r="AT284" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AU284" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AT1"/>
+    <mergeCell ref="A1:AU1"/>
   </mergeCells>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -37457,7 +37760,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>average(Raw!AT3:AT300)</f>
+        <f>average(Raw!AU3:AU300)</f>
         <v>0.1028368794</v>
       </c>
     </row>
